--- a/ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/1.xlsx
+++ b/ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/1.xlsx
@@ -839,10 +839,10 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="J10" s="5">
+      <c r="K10" s="5">
         <v>127</v>
       </c>
-      <c r="K10" s="5">
+      <c r="L10" s="5">
         <v>289.5700000000001</v>
       </c>
     </row>
